--- a/Present Value of An Annuity Calculator.xlsx
+++ b/Present Value of An Annuity Calculator.xlsx
@@ -159,7 +159,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -513,7 +516,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,30 +527,30 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -555,7 +558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
@@ -563,7 +566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -571,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -580,20 +583,20 @@
         <v>614.45671057046854</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
@@ -601,8 +604,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -623,7 +627,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7">
-        <f>$B$18/(1+$B$15)^(A18)</f>
+        <f>B18/(1+$B$15)^(A18)</f>
         <v>90.909090909090907</v>
       </c>
     </row>
@@ -635,7 +639,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" ref="C19:C27" si="0">$B$18/(1+$B$15)^(A19)</f>
+        <f t="shared" ref="C19:C27" si="0">B19/(1+$B$15)^(A19)</f>
         <v>82.644628099173545</v>
       </c>
     </row>
